--- a/tools/bsi/BSI-externer-Cloud-Dienste.xlsx
+++ b/tools/bsi/BSI-externer-Cloud-Dienste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A9E34E-2475-1344-A534-C6EE8CAAD660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E0A1F-41E1-754A-B56D-CDE3DBAD35A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{0EE45ECB-C4A5-714F-97DD-6469C5369CE6}"/>
   </bookViews>
@@ -745,12 +745,6 @@
     <t>Umgang mit Unterauftragnehmern und anderen externen Dritten vertraglich zusichern</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Bundesamt für Sicherheit in der Informationstechnik (BSI) Mindeststandards (MST) für die Sicherheit der Informationstechnik des Bundes1 fest. Dies erfolgt auf der Grundlage des § 8 Absatz 1 BSIG im Benehmen mit den Ressorts. Als gesetzliche Vorgabe definieren Mindeststandards somit ein verbindliches Mindestniveau für die Informationssicherheit. 
-nach § 8 Absatz 1 Satz 1 BSIG – Version 2.1 vom 15.12.2022
-Here is the link to the document :
-https://www.bsi.bund.de/SharedDocs/Downloads/DE/BSI/Mindeststandards/Mindeststandard_Nutzung_externer_Cloud-Dienste_Version_2_1.pdf?__blob=publicationFile&amp;v=4 </t>
-  </si>
-  <si>
     <t>BSI</t>
   </si>
   <si>
@@ -837,6 +831,11 @@
   </si>
   <si>
     <t>Mindeststandard-des-BSI-zur-Nutzung-externer-Cloud-Dienste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Bundesamt für Sicherheit in der Informationstechnik (BSI) Mindeststandards (MST) für die Sicherheit der Informationstechnik des Bundes1 fest. Dies erfolgt auf der Grundlage des § 8 Absatz 1 BSIG im Benehmen mit den Ressorts. Als gesetzliche Vorgabe definieren Mindeststandards somit ein verbindliches Mindestniveau für die Informationssicherheit. 
+nach § 8 Absatz 1 Satz 1 BSIG – Version 2.1 vom 15.12.2022
+Link : https://www.bsi.bund.de/SharedDocs/Downloads/DE/BSI/Mindeststandards/Mindeststandard_Nutzung_externer_Cloud-Dienste_Version_2_1.pdf?__blob=publicationFile&amp;v=4 </t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1396,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1428,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1436,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1444,15 +1443,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1460,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1492,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1500,15 +1499,15 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1516,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1560,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -1590,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1661,7 +1660,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1718,7 +1717,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1788,7 +1787,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1914,7 +1913,7 @@
         <v>70</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -1956,7 +1955,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -2181,7 +2180,7 @@
         <v>105</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -2251,7 +2250,7 @@
         <v>114</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2348,7 +2347,7 @@
         <v>128</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -2431,7 +2430,7 @@
         <v>140</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2488,7 +2487,7 @@
         <v>147</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2517,7 +2516,7 @@
         <v>152</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2560,7 +2559,7 @@
         <v>154</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2659,7 +2658,7 @@
         <v>170</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2768,7 +2767,7 @@
         <v>186</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2785,7 +2784,7 @@
         <v>187</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2796,7 +2795,7 @@
         <v>182</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E89" s="11"/>
     </row>
@@ -2814,7 +2813,7 @@
         <v>183</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2831,7 +2830,7 @@
         <v>184</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2848,7 +2847,7 @@
         <v>185</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="10" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -2989,7 +2988,7 @@
         <v>224</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
